--- a/REGULAR/TIBAYAN, WILMER.xlsx
+++ b/REGULAR/TIBAYAN, WILMER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165E500-301B-4DD6-B1EA-53C9FEC803CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3ED274-6583-4DA8-8337-E428F0D13680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -744,7 +744,13 @@
     <t>TOTAL VL = 145.196</t>
   </si>
   <si>
-    <t>TOTAL SL = 174.5</t>
+    <t>ADMIN OFFICER III</t>
+  </si>
+  <si>
+    <t>GSO</t>
+  </si>
+  <si>
+    <t>1 - Married (and not separated)</t>
   </si>
   <si>
     <r>
@@ -759,17 +765,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DECEMBER 06, 2023</t>
+      <t>DECEMBER 07, 2023</t>
     </r>
   </si>
   <si>
-    <t>ADMIN OFFICER III</t>
-  </si>
-  <si>
-    <t>GSO</t>
-  </si>
-  <si>
-    <t>1 - Married (and not separated)</t>
+    <t>TOTAL SL = 179.5</t>
   </si>
 </sst>
 </file>
@@ -1159,6 +1159,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,27 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,6 +1491,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K441" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1822,9 +1823,9 @@
   <dimension ref="A2:K441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="2964" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7:J7"/>
+      <pane ySplit="2964" topLeftCell="A418" activePane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="H427" sqref="H427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1846,66 +1847,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="56"/>
+      <c r="F2" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="51"/>
+      <c r="B3" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="52"/>
+      <c r="F4" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1931,18 +1932,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1999,7 +2000,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>174.5</v>
+        <v>179.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2969,9 +2970,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H54" s="39">
-        <v>5</v>
-      </c>
+      <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
@@ -10900,12 +10899,12 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
-      <c r="B425" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="C425" s="62"/>
-      <c r="D425" s="63"/>
-      <c r="E425" s="64"/>
+      <c r="B425" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C425" s="51"/>
+      <c r="D425" s="52"/>
+      <c r="E425" s="53"/>
       <c r="F425" s="20"/>
       <c r="G425" s="13"/>
       <c r="H425" s="39"/>
@@ -10917,14 +10916,14 @@
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
-      <c r="D426" s="65" t="s">
+      <c r="D426" s="54" t="s">
         <v>235</v>
       </c>
       <c r="E426" s="9"/>
       <c r="F426" s="20"/>
       <c r="G426" s="13"/>
-      <c r="H426" s="65" t="s">
-        <v>236</v>
+      <c r="H426" s="54" t="s">
+        <v>240</v>
       </c>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
@@ -10939,13 +10938,13 @@
       <c r="D427" s="39"/>
       <c r="E427" s="9"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="62" t="s">
+      <c r="G427" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="H427" s="63"/>
-      <c r="I427" s="64"/>
-      <c r="J427" s="66"/>
-      <c r="K427" s="67"/>
+      <c r="H427" s="52"/>
+      <c r="I427" s="53"/>
+      <c r="J427" s="55"/>
+      <c r="K427" s="56"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
@@ -11174,7 +11173,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11192,17 +11191,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -11287,12 +11286,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
